--- a/2024-02-04_00-29-15_pack-group-1_342d6769-dbe7-43e0-bba3-61cbaeaed180-completed.xlsx
+++ b/2024-02-04_00-29-15_pack-group-1_342d6769-dbe7-43e0-bba3-61cbaeaed180-completed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\web\barcodeScanner\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\barcode-Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93DADFBC-8ED6-492F-9A50-9BE87B37A902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C85EF5-FCB3-47ED-B9D9-04B05C010DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -712,17 +712,11 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -736,6 +730,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -767,9 +767,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -807,7 +807,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -913,7 +913,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1055,7 +1055,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1065,11 +1065,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,9 +1078,9 @@
     <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="11" width="15" customWidth="1"/>
@@ -1089,7 +1089,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="32"/>
@@ -1105,19 +1105,19 @@
       <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:29" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="40" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="41" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="42" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="32"/>
@@ -1128,7 +1128,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="32"/>
@@ -1883,7 +1883,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="32"/>
@@ -1897,26 +1897,26 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="35" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="32"/>
@@ -2000,7 +2000,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="36" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="32"/>
@@ -2037,7 +2037,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="37" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="32"/>
@@ -2074,7 +2074,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="38" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="32"/>
@@ -2111,7 +2111,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="31" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="32"/>
@@ -2148,7 +2148,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="32"/>
@@ -2162,27 +2162,32 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
-      <c r="R26" s="38"/>
-      <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
-      <c r="AC26" s="38"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="34"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="34"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="34"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
     </row>
   </sheetData>
   <sheetProtection password="DFB5" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="12">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A26:AC26"/>
     <mergeCell ref="A20:AC20"/>
@@ -2190,11 +2195,6 @@
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="A23:L23"/>
     <mergeCell ref="A24:L24"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:K19">
     <cfRule type="expression" dxfId="0" priority="1">

--- a/2024-02-04_00-29-15_pack-group-1_342d6769-dbe7-43e0-bba3-61cbaeaed180-completed.xlsx
+++ b/2024-02-04_00-29-15_pack-group-1_342d6769-dbe7-43e0-bba3-61cbaeaed180-completed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\barcode-Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C85EF5-FCB3-47ED-B9D9-04B05C010DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC6A0AC-D9FF-4E54-9469-816B50810726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,6 +19,7 @@
     <sheet name="Metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -712,11 +713,17 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -730,12 +737,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1066,10 +1067,10 @@
   <dimension ref="A1:AC26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1090,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="32"/>
@@ -1105,19 +1106,19 @@
       <c r="L1" s="32"/>
     </row>
     <row r="2" spans="1:29" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
     </row>
     <row r="3" spans="1:29" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="35" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="32"/>
@@ -1128,7 +1129,7 @@
       </c>
     </row>
     <row r="4" spans="1:29" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="32"/>
@@ -1883,7 +1884,7 @@
       </c>
     </row>
     <row r="20" spans="1:29" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B20" s="32"/>
@@ -1897,26 +1898,26 @@
       <c r="J20" s="32"/>
       <c r="K20" s="32"/>
       <c r="L20" s="32"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+      <c r="AB20" s="38"/>
+      <c r="AC20" s="38"/>
     </row>
     <row r="21" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="39" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="32"/>
@@ -2000,7 +2001,7 @@
       </c>
     </row>
     <row r="22" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
+      <c r="A22" s="40" t="s">
         <v>91</v>
       </c>
       <c r="B22" s="32"/>
@@ -2037,7 +2038,7 @@
       </c>
     </row>
     <row r="23" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="41" t="s">
         <v>92</v>
       </c>
       <c r="B23" s="32"/>
@@ -2074,7 +2075,7 @@
       </c>
     </row>
     <row r="24" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="42" t="s">
         <v>93</v>
       </c>
       <c r="B24" s="32"/>
@@ -2111,7 +2112,7 @@
       </c>
     </row>
     <row r="25" spans="1:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="37" t="s">
         <v>94</v>
       </c>
       <c r="B25" s="32"/>
@@ -2148,7 +2149,7 @@
       </c>
     </row>
     <row r="26" spans="1:29" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="36" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="32"/>
@@ -2162,32 +2163,27 @@
       <c r="J26" s="32"/>
       <c r="K26" s="32"/>
       <c r="L26" s="32"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="34"/>
-      <c r="Q26" s="34"/>
-      <c r="R26" s="34"/>
-      <c r="S26" s="34"/>
-      <c r="T26" s="34"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="34"/>
-      <c r="W26" s="34"/>
-      <c r="X26" s="34"/>
-      <c r="Y26" s="34"/>
-      <c r="Z26" s="34"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="34"/>
-      <c r="AC26" s="34"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
+      <c r="O26" s="38"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
+      <c r="R26" s="38"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="38"/>
+      <c r="W26" s="38"/>
+      <c r="X26" s="38"/>
+      <c r="Y26" s="38"/>
+      <c r="Z26" s="38"/>
+      <c r="AA26" s="38"/>
+      <c r="AB26" s="38"/>
+      <c r="AC26" s="38"/>
     </row>
   </sheetData>
   <sheetProtection password="DFB5" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="12">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="A4:L4"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A26:AC26"/>
     <mergeCell ref="A20:AC20"/>
@@ -2195,6 +2191,11 @@
     <mergeCell ref="A22:L22"/>
     <mergeCell ref="A23:L23"/>
     <mergeCell ref="A24:L24"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="A4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:K19">
     <cfRule type="expression" dxfId="0" priority="1">
